--- a/data/trans_dic/P1801_2016_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1801_2016_2023-Habitat-trans_dic.xlsx
@@ -612,7 +612,7 @@
         <v>0.4926448382617735</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.506595247760638</v>
+        <v>0.5065952477606381</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.6125668454300823</v>
@@ -624,7 +624,7 @@
         <v>0.5525185902562791</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.5341662875751639</v>
+        <v>0.534166287575164</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4552096450126418</v>
+        <v>0.4554897967915776</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4623582453965455</v>
+        <v>0.4634102331657166</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.580259853657811</v>
+        <v>0.573621483372183</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5305266866313214</v>
+        <v>0.5300668858423121</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5255027000219101</v>
+        <v>0.5232728855671542</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5088550006744459</v>
+        <v>0.5077584490795143</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5339205073746668</v>
+        <v>0.5303818657418558</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5477682670599424</v>
+        <v>0.5458783378552821</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.652131759184159</v>
+        <v>0.6524308880180398</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5901130331113702</v>
+        <v>0.5911554055812724</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5803379729284721</v>
+        <v>0.5774682585476199</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5621993569777423</v>
+        <v>0.560318724203437</v>
       </c>
     </row>
     <row r="7">
@@ -706,7 +706,7 @@
         <v>0.504354949137884</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.5345109444104057</v>
+        <v>0.5345109444104056</v>
       </c>
     </row>
     <row r="8">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4154004781328713</v>
+        <v>0.413574195406559</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4506272535416478</v>
+        <v>0.45385510326175</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5313343184906885</v>
+        <v>0.5302570592584895</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5543744016417023</v>
+        <v>0.5555387349313977</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4823756169120149</v>
+        <v>0.4813397290596676</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5134938112531701</v>
+        <v>0.5135265172585834</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4777649790803915</v>
+        <v>0.4785413642870086</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5180380302027103</v>
+        <v>0.5213757451082831</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5946820848952439</v>
+        <v>0.5939793200379345</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6072423752925783</v>
+        <v>0.6093349249157879</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5258521322928597</v>
+        <v>0.527154002962089</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5575217999108569</v>
+        <v>0.5577817013644036</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>0.5977235624081447</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4907019653762374</v>
+        <v>0.4907019653762375</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.531693263273209</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4272427756847285</v>
+        <v>0.424646244184607</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3669612062939245</v>
+        <v>0.3642032393152511</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5567013596185142</v>
+        <v>0.564317321611694</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4590503255021605</v>
+        <v>0.4574870200453792</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5081029988616689</v>
+        <v>0.5003292321969616</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4218328538097496</v>
+        <v>0.4208663440502858</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5026588546509619</v>
+        <v>0.4992924296337302</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4423504211786992</v>
+        <v>0.4429384504608557</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6315848757947806</v>
+        <v>0.6346598813584742</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5246722265266094</v>
+        <v>0.5219330409933119</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.559718224623476</v>
+        <v>0.5564529602864836</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4730739106715487</v>
+        <v>0.4715249018577057</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4365629721000607</v>
+        <v>0.4380301280818537</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.482860728632153</v>
+        <v>0.4816310712104929</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5014949092379765</v>
+        <v>0.5017663007964686</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5621096603707968</v>
+        <v>0.5562436868320425</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4794199123659222</v>
+        <v>0.4810689947561699</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.529793178205745</v>
+        <v>0.5330912564176444</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5029071493986816</v>
+        <v>0.5032681781038174</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5476344326407359</v>
+        <v>0.5498663803539434</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5672633835380128</v>
+        <v>0.5667889593737594</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6134806866271328</v>
+        <v>0.6116958205052896</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5256792372167974</v>
+        <v>0.5231604759471601</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5741245410356143</v>
+        <v>0.5763341530265426</v>
       </c>
     </row>
     <row r="16">
@@ -952,7 +952,7 @@
         <v>0.5193213263810103</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.5203379198049807</v>
+        <v>0.5203379198049808</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4475595343901225</v>
+        <v>0.4480329564789878</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.461541466958131</v>
+        <v>0.4612968740448078</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5532577037495738</v>
+        <v>0.5546300577004409</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5444992205222429</v>
+        <v>0.5454772121436779</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5081409029750081</v>
+        <v>0.507074423162391</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5080794586278856</v>
+        <v>0.5085860506135231</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4809109046290754</v>
+        <v>0.4839781006018267</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4978068023987729</v>
+        <v>0.4983244264451837</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5883057871641788</v>
+        <v>0.5876364796677144</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5731862402268891</v>
+        <v>0.5746539274091514</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5308913670540194</v>
+        <v>0.5307484382959128</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5316435867351338</v>
+        <v>0.5318484129088118</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>307175</v>
+        <v>307365</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>319355</v>
+        <v>320082</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>390421</v>
+        <v>385955</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>388651</v>
+        <v>388314</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>708188</v>
+        <v>705183</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>724246</v>
+        <v>722685</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>360290</v>
+        <v>357902</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>378349</v>
+        <v>377044</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>438780</v>
+        <v>438981</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>432302</v>
+        <v>433066</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>782086</v>
+        <v>778219</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>800170</v>
+        <v>797493</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>424718</v>
+        <v>422851</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>472188</v>
+        <v>475571</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>554135</v>
+        <v>553012</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>593152</v>
+        <v>594398</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>996272</v>
+        <v>994132</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1087475</v>
+        <v>1087544</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>488482</v>
+        <v>489276</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>542825</v>
+        <v>546322</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>620202</v>
+        <v>619469</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>649718</v>
+        <v>651957</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1086066</v>
+        <v>1088754</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1180717</v>
+        <v>1181268</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>324513</v>
+        <v>322541</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>294283</v>
+        <v>292071</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>437017</v>
+        <v>442995</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>371504</v>
+        <v>370239</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>784797</v>
+        <v>772790</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>679671</v>
+        <v>678114</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>381796</v>
+        <v>379239</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>354741</v>
+        <v>355213</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>495801</v>
+        <v>498215</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>424611</v>
+        <v>422394</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>864520</v>
+        <v>859477</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>762233</v>
+        <v>759737</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>409307</v>
+        <v>410683</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>477542</v>
+        <v>476325</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>523450</v>
+        <v>523733</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>627289</v>
+        <v>620743</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>949897</v>
+        <v>953164</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1115182</v>
+        <v>1122125</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>471509</v>
+        <v>471848</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>541602</v>
+        <v>543809</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>592098</v>
+        <v>591602</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>684617</v>
+        <v>682625</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1041552</v>
+        <v>1036562</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1208497</v>
+        <v>1213148</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1519174</v>
+        <v>1520781</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1629004</v>
+        <v>1628141</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1961045</v>
+        <v>1965910</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2029767</v>
+        <v>2033412</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3525935</v>
+        <v>3518535</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3687262</v>
+        <v>3690938</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1632380</v>
+        <v>1642791</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1757002</v>
+        <v>1758829</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2085275</v>
+        <v>2082902</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2136705</v>
+        <v>2142177</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>3683798</v>
+        <v>3682806</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>3858273</v>
+        <v>3859759</v>
       </c>
     </row>
     <row r="24">
